--- a/src/assets/excel/remboursement_model.xlsx
+++ b/src/assets/excel/remboursement_model.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">date_de_rembousement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">credit_en_debut_periode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capital</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">id_db_banque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montant_payer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_paiement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_scan</t>
   </si>
 </sst>
 </file>
@@ -46,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +71,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,18 +208,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -229,6 +233,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -236,8 +243,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/assets/excel/remboursement_model.xlsx
+++ b/src/assets/excel/remboursement_model.xlsx
@@ -20,21 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">id_db_banque</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">date_paiement</t>
   </si>
   <si>
     <t xml:space="preserve">montant_payer</t>
   </si>
   <si>
+    <t xml:space="preserve">numero_transaction</t>
+  </si>
+  <si>
     <t xml:space="preserve">observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_paiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_scan</t>
   </si>
 </sst>
 </file>
@@ -44,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +62,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -122,12 +125,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,34 +215,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
